--- a/biology/Zoologie/Chirodropida/Chirodropida.xlsx
+++ b/biology/Zoologie/Chirodropida/Chirodropida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chirodropida est un ordre de cuboméduses (cnidaires de la classe des Cubozoa).
 </t>
@@ -511,9 +523,11 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet ordre se distingue par la présence de bases musculaires branchues (pedalium) aux coins inférieurs, d'où sortent généralement des tentacules multiples. On distingue aussi de petites saccules associées à la cavité gastrique[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet ordre se distingue par la présence de bases musculaires branchues (pedalium) aux coins inférieurs, d'où sortent généralement des tentacules multiples. On distingue aussi de petites saccules associées à la cavité gastrique. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">World Register of Marine Species                               (22 mai 2015)[3] dénombre trois familles de Chiropropida :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">World Register of Marine Species                               (22 mai 2015) dénombre trois familles de Chiropropida :
 famille Chirodropidae Haeckel, 1880 (3 genres, dont le redoutable Chironex)
 famille Chiropsalmidae Thiel, 1936 (2 genres)
 famille Chiropsellidae Toshino, Miyake &amp; Shibata, 2015 (2 genres)
